--- a/Schedule_p-funk.xlsx
+++ b/Schedule_p-funk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidspivak/Dropbox (MIT)/workwithothers/Kock_Spivak/P-funk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kock/Dropbox/P-func-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9DCBDE-FD27-804E-BDC4-0CE01FCF56F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CCD07-3F70-1C45-BA0E-3171E6FBCD6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="7540" windowWidth="28040" windowHeight="17440" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
+    <workbookView xWindow="2840" yWindow="9900" windowWidth="28040" windowHeight="17440" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Joyal</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>Haugseng: first talk of day and not Monday, not Tuesday</t>
+  </si>
+  <si>
+    <t>EXPERIMENT</t>
+  </si>
+  <si>
+    <t>Spivak 2</t>
+  </si>
+  <si>
+    <t>Hvid Hansen</t>
+  </si>
+  <si>
+    <t>Spivak 1</t>
+  </si>
+  <si>
+    <t>Garner 1</t>
+  </si>
+  <si>
+    <t>Garner 2</t>
+  </si>
+  <si>
+    <t>Garner 3</t>
+  </si>
+  <si>
+    <t>Jacobs 1</t>
+  </si>
+  <si>
+    <t>Jacobs 2</t>
+  </si>
+  <si>
+    <t>Nordvall-F</t>
+  </si>
+  <si>
+    <t>Spivak 3</t>
   </si>
 </sst>
 </file>
@@ -496,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CCFE02-B8CA-5049-AC8D-439F9B6CEF79}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,6 +848,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J12:J19">
     <sortCondition ref="J12:J19"/>

--- a/Schedule_p-funk.xlsx
+++ b/Schedule_p-funk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kock/Dropbox/P-func-workshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidspivak/VersionControl/P-func-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CCD07-3F70-1C45-BA0E-3171E6FBCD6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCA057-19EE-BD4A-950B-AC04543A758F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="9900" windowWidth="28040" windowHeight="17440" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
+    <workbookView xWindow="13300" yWindow="11360" windowWidth="23260" windowHeight="13780" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Joyal</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Americans:</t>
   </si>
   <si>
-    <t>Haugseng: first talk of day and not Monday, not Tuesday</t>
-  </si>
-  <si>
     <t>EXPERIMENT</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>Spivak 3</t>
+  </si>
+  <si>
+    <t>Haugseng: first or second talk of day and not Monday, not Tuesday</t>
+  </si>
+  <si>
+    <t>David's suggestion</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CCFE02-B8CA-5049-AC8D-439F9B6CEF79}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,20 +658,20 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -676,28 +679,36 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
-        <v>18</v>
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -705,7 +716,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -732,7 +743,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -740,7 +751,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -756,12 +767,12 @@
       </c>
       <c r="F15" s="4"/>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -777,7 +788,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>27</v>
@@ -785,7 +796,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>0.9375</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -811,7 +822,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>0.97916666666666663</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -836,9 +847,6 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
       <c r="K19" t="s">
         <v>0</v>
       </c>
@@ -848,71 +856,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Schedule_p-funk.xlsx
+++ b/Schedule_p-funk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidspivak/VersionControl/P-func-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCA057-19EE-BD4A-950B-AC04543A758F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A55D9-9E0E-E74C-B5A5-0453E61F4A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="11360" windowWidth="23260" windowHeight="13780" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Joyal</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>David's suggestion</t>
+  </si>
+  <si>
+    <t>Joachim's suggestion</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,6 +859,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>

--- a/Schedule_p-funk.xlsx
+++ b/Schedule_p-funk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidspivak/VersionControl/P-func-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A55D9-9E0E-E74C-B5A5-0453E61F4A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8737EF8D-C76F-4541-B6B2-A131663B73D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="11360" windowWidth="23260" windowHeight="13780" xr2:uid="{E8931D0F-29D2-0443-B37D-6106087DE56A}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -621,7 +621,7 @@
         <v>0.9375</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -674,7 +674,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -698,12 +698,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -713,13 +713,16 @@
       <c r="A12" t="s">
         <v>40</v>
       </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -746,7 +749,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -769,9 +772,6 @@
         <v>15</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -791,7 +791,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>27</v>
@@ -933,8 +933,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J12:J19">
-    <sortCondition ref="J12:J19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J13:J20">
+    <sortCondition ref="J13:J20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
